--- a/article/数据报文.xlsx
+++ b/article/数据报文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Environment\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A40D698-FC77-4237-B4E8-5B3EEFB4FB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1C87AF-E13A-420C-9FE4-25E944FB0054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -494,6 +494,30 @@
   </si>
   <si>
     <t>IP数据部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位源端口号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位目的端口号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位UDP长度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位UDP检验和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据（如果有）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP报文头部</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +552,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +583,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -574,32 +604,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -614,7 +623,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,208 +964,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="13" t="s">
@@ -1155,181 +1188,310 @@
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="35">
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="A25:P26"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:P9"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="I15:P15"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I16:P16"/>
     <mergeCell ref="A17:M17"/>
@@ -1338,27 +1500,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:K19"/>
     <mergeCell ref="C20:K20"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:P9"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/article/数据报文.xlsx
+++ b/article/数据报文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Environment\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C21136-DCB5-4C4F-9D9F-3CEE1F161532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C4A14-3DD4-46AD-B905-3BAC7303FFD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="50">
   <si>
     <t>选项（如果有）</t>
   </si>
@@ -448,13 +448,21 @@
       </rPr>
       <t>地址</t>
     </r>
+  </si>
+  <si>
+    <t>UDP首部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP数据部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -492,6 +500,13 @@
       <color theme="0"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -552,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,31 +586,43 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,290 +939,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:P5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
@@ -1222,279 +1249,345 @@
       <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="44">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:P9"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="N17:P17"/>
     <mergeCell ref="A28:P28"/>
     <mergeCell ref="I29:P29"/>
     <mergeCell ref="A30:P31"/>
@@ -1504,33 +1597,7 @@
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="A14:P14"/>
     <mergeCell ref="A25:P26"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:P9"/>
-    <mergeCell ref="A22:P22"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="I23:P23"/>
     <mergeCell ref="A24:H24"/>
